--- a/parse table.xlsx
+++ b/parse table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Project\SyntaxChecker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836707B-49EE-461A-A5C9-4DC97E10B096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,492 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
+  <si>
+    <t>Non-
+terminals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arg_list</t>
+  </si>
+  <si>
+    <t>arg_list'</t>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>compound_stmt</t>
+  </si>
+  <si>
+    <t>decl_list</t>
+  </si>
+  <si>
+    <t>decl_list'</t>
+  </si>
+  <si>
+    <t>expr</t>
+  </si>
+  <si>
+    <t>expr_stmt</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>factor'</t>
+  </si>
+  <si>
+    <t>fun_decl</t>
+  </si>
+  <si>
+    <t>if_stmt</t>
+  </si>
+  <si>
+    <t>local_decl</t>
+  </si>
+  <si>
+    <t>local_decls</t>
+  </si>
+  <si>
+    <t>local_decls'</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>param_list</t>
+  </si>
+  <si>
+    <t>param_list'</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>prim_type</t>
+  </si>
+  <si>
+    <t>print_stmt</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>return_stmt</t>
+  </si>
+  <si>
+    <t>stmt</t>
+  </si>
+  <si>
+    <t>stmt_list</t>
+  </si>
+  <si>
+    <t>stmt_list'</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>term'</t>
+  </si>
+  <si>
+    <t>type_spec</t>
+  </si>
+  <si>
+    <t>while_stmt</t>
+  </si>
+  <si>
+    <t>FUNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPAREN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPAREN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBRACKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBRACKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCRET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPEOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPROP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_LIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_LIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arg_list -&gt; expr arg_list'</t>
+  </si>
+  <si>
+    <t>arg_list' -&gt; COMMA expr arg_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arg_list' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args -&gt; arg_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> args -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound_stmt -&gt; BEGIN local_decls stmt_list END</t>
+  </si>
+  <si>
+    <t>decl_list -&gt; decl_list'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> decl_list' -&gt; fun_decl decl_list'</t>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decl_list' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr -&gt; term expr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expr' -&gt; EXPROP term expr'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> expr' -&gt; RELOP term expr'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr_stmt -&gt; IDENT ASSIGN expr SEMI</t>
+  </si>
+  <si>
+    <t>factor -&gt; IDENT factor'</t>
+  </si>
+  <si>
+    <t>factor -&gt; LPAREN expr RPAREN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor -&gt; INT_LIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor -&gt; BOOL_LIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor -&gt; NEW prim_type LBRACKET expr RBRACKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor' -&gt; LPAREN args RPAREN</t>
+  </si>
+  <si>
+    <t>factor' -&gt; LBRACKET expr RBRACKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor' -&gt; DOT SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor' -&gt; ϵ</t>
+  </si>
+  <si>
+    <t>factor' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> fun_decl -&gt; FUNC IDENT TYPEOF LPAREN params RPAREN FUNCRET prim_type BEGIN local_decls stmt_list END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_stmt -&gt; IF expr THEN stmt_list ELSE stmt_list END</t>
+  </si>
+  <si>
+    <t>local_decl -&gt; VAR IDENT TYPEOF type_spec SEMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_decls -&gt; local_decls'</t>
+  </si>
+  <si>
+    <t>local_decls' -&gt; local_decl local_decls'</t>
+  </si>
+  <si>
+    <t>local_decls -&gt; local_decls'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_decls' -&gt; ϵ</t>
+  </si>
+  <si>
+    <t>local_decls' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param -&gt; IDENT TYPEOF type_spec</t>
+  </si>
+  <si>
+    <t>param_list -&gt; param param_list'</t>
+  </si>
+  <si>
+    <t>param_list' -&gt; COMMA param param_list'</t>
+  </si>
+  <si>
+    <t>param_list' -&gt; ϵ</t>
+  </si>
+  <si>
+    <t>params -&gt; param_list</t>
+  </si>
+  <si>
+    <t>params -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prim_type -&gt; INT</t>
+  </si>
+  <si>
+    <t>prim_type  -&gt; BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print_stmt -&gt; PRINT expr SEMI</t>
+  </si>
+  <si>
+    <t>program -&gt; decl_list</t>
+  </si>
+  <si>
+    <t>return_stmt -&gt; RETURN expr SEMI</t>
+  </si>
+  <si>
+    <t>stmt -&gt; expr_stmt</t>
+  </si>
+  <si>
+    <t>stmt -&gt; print_stmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stmt -&gt; return_stmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stmt -&gt; if_stmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stmt -&gt; while_stmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stmt -&gt; compound_stmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stmt_list -&gt; stmt_list'</t>
+  </si>
+  <si>
+    <t>stmt_list' -&gt; stmt stmt_list'</t>
+  </si>
+  <si>
+    <t>stmt_list' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term -&gt; factor term'</t>
+  </si>
+  <si>
+    <t>term' -&gt; TERMOP factor term'</t>
+  </si>
+  <si>
+    <t>term' -&gt; ϵ</t>
+  </si>
+  <si>
+    <t>term' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_spec -&gt; prim_type type_spec'</t>
+  </si>
+  <si>
+    <t>type_spec' -&gt; LBRACKET RBRACKET</t>
+  </si>
+  <si>
+    <t>type_spec'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_spec' -&gt; ϵ</t>
+  </si>
+  <si>
+    <t>type_spec' -&gt; ϵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while_stmt -&gt; WHILE expr BEGIN stmt_list END</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +532,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +829,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="33" width="38" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>